--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_160.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_160.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Omni Royal Crescent Hotel</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>1414</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>31364</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70130</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70130</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_160.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_160.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,665 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r625907162-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>89150</t>
+  </si>
+  <si>
+    <t>625907162</t>
+  </si>
+  <si>
+    <t>10/17/2018</t>
+  </si>
+  <si>
+    <t>Not good, but not bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You honestly can’t beat the rate and the location. But this is an old hotel, so naturally with old hotels come old problems. The elevator was constantly breaking down. Room was small, but we managed. Unfortunately there’s no microwave in the room so I had to refuse all my leftovers from the surrounding restaurants. The part I could not get past was the musty smell. The staff was very nice and extremely helpful but I would not stay here again. </t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r625823243-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>625823243</t>
+  </si>
+  <si>
+    <t>If you're reading this it's probably too late</t>
+  </si>
+  <si>
+    <t>So I got matched with this "4 Star" hotel through hotwire.com and if you are reading this the same probably happened to you and it's too late to do anything about it, if not, you're better off sleeping on the street, at least its free. The rooms look like something out of the 1980's and the hotel smells stale. The showers have extremely low flow, the tub water runs at the same time which leaves you taking a shower in a shallow pool, The bathrooms are small, the bed is uncomfortable, I really could go on but if you aren't turned off by this then I doubt anything else will change your mind. Oh and there was a fire on my floor and they didn't want to give me a new room even though there was smoke lingering. Didn't stay the night found a new place and got a refund.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>So I got matched with this "4 Star" hotel through hotwire.com and if you are reading this the same probably happened to you and it's too late to do anything about it, if not, you're better off sleeping on the street, at least its free. The rooms look like something out of the 1980's and the hotel smells stale. The showers have extremely low flow, the tub water runs at the same time which leaves you taking a shower in a shallow pool, The bathrooms are small, the bed is uncomfortable, I really could go on but if you aren't turned off by this then I doubt anything else will change your mind. Oh and there was a fire on my floor and they didn't want to give me a new room even though there was smoke lingering. Didn't stay the night found a new place and got a refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r624845800-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>624845800</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>run baby run!!!!!!!</t>
+  </si>
+  <si>
+    <t>I am a guest in the hotel now and i am in shock. No 4 stars hardly 2 so please do not make the mistake i made. Get something nice the took my money and deposit and charge 35 dollars per day for parking. No housekeeping today and the first room they gave me had a matrass with a large bloodstain i am still upset who died there? I am not joking i booked through booking.com and i think they never check the hotels 4**** my ....The staff is nice i think they are upset to to sell this and deal with all the complaints i feel sorry for them.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a guest in the hotel now and i am in shock. No 4 stars hardly 2 so please do not make the mistake i made. Get something nice the took my money and deposit and charge 35 dollars per day for parking. No housekeeping today and the first room they gave me had a matrass with a large bloodstain i am still upset who died there? I am not joking i booked through booking.com and i think they never check the hotels 4**** my ....The staff is nice i think they are upset to to sell this and deal with all the complaints i feel sorry for them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r620842808-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620842808</t>
+  </si>
+  <si>
+    <t>09/30/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I love boutique hotels. I prefer them. In town for a wedding, this hotel disappointed. We also did not receive a receipt, and given that we had to catch the shuttle, we did not have time to wait. We did not receive Maud service one day, and had to call. Our last night, we requested a wake up call which we never received. If you tout yourself as catering to those business travellers and those who like boutique hotels, thus is a must. We also were not to the rooftop tub was not available. The restaurant was slow and the staff not very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I love boutique hotels. I prefer them. In town for a wedding, this hotel disappointed. We also did not receive a receipt, and given that we had to catch the shuttle, we did not have time to wait. We did not receive Maud service one day, and had to call. Our last night, we requested a wake up call which we never received. If you tout yourself as catering to those business travellers and those who like boutique hotels, thus is a must. We also were not to the rooftop tub was not available. The restaurant was slow and the staff not very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r620517195-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620517195</t>
+  </si>
+  <si>
+    <t>09/29/2018</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of hotels and I would not say that this hotel is anywhere near four stars as Google claims. The only reason that this hotel is not getting one star is the manager that I dealt with. When we first checked in we were trying to walk to our room, but we turn the corner and see a guy passed out in the hallway. We notified the front desk and they did NOTHING! We called the fire department ourselves and stayed with this guy until they showed up. My group had two rooms, the toilet didn't work in one of the rooms. One of the reasons we came to this hotel was the rooftop pool and bar but when we arrived it was closed for construction and we were not given any sort of notification. The rooms were very very dated with cracked tiles, faded and worn carpets, scuffs all over the walls, and worn furniture. When I talked to a manager she did help us out and gave us half off one night of the rooms, but I would not give this place another chance. I reccommend looking elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of hotels and I would not say that this hotel is anywhere near four stars as Google claims. The only reason that this hotel is not getting one star is the manager that I dealt with. When we first checked in we were trying to walk to our room, but we turn the corner and see a guy passed out in the hallway. We notified the front desk and they did NOTHING! We called the fire department ourselves and stayed with this guy until they showed up. My group had two rooms, the toilet didn't work in one of the rooms. One of the reasons we came to this hotel was the rooftop pool and bar but when we arrived it was closed for construction and we were not given any sort of notification. The rooms were very very dated with cracked tiles, faded and worn carpets, scuffs all over the walls, and worn furniture. When I talked to a manager she did help us out and gave us half off one night of the rooms, but I would not give this place another chance. I reccommend looking elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r620060637-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620060637</t>
+  </si>
+  <si>
+    <t>09/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasant room in well located hotel</t>
+  </si>
+  <si>
+    <t>While improvements are clearly needed for the hotel we could not complain about our room. We were in a suite on the top floor which was spacious and well appointed. The high ceilings gave it extra character and we had no problems with the AC or the plumbing. The bed was comfortable with soft sheets and pillows and the room was kept scrupulously clean. The Wi Fi was a bit naff but that was true of many New Orleans locations.The hotel staff were invariably pleasant and helpful.  The hotel is located in a great spot with easy access to the Superdome, The Riverwalk and the French Quarter. All in all we found it a great base for exploring the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>While improvements are clearly needed for the hotel we could not complain about our room. We were in a suite on the top floor which was spacious and well appointed. The high ceilings gave it extra character and we had no problems with the AC or the plumbing. The bed was comfortable with soft sheets and pillows and the room was kept scrupulously clean. The Wi Fi was a bit naff but that was true of many New Orleans locations.The hotel staff were invariably pleasant and helpful.  The hotel is located in a great spot with easy access to the Superdome, The Riverwalk and the French Quarter. All in all we found it a great base for exploring the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r619770100-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619770100</t>
+  </si>
+  <si>
+    <t>09/26/2018</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>I stayed here in July during Essence Festival. The hotel recently changed ownership and probably should have just closed it doors to regroup. The location is great and in walking distance to the Superdome, Riverwalk, Conventikn Center, and other touristy destinations in the city! However, that is where the compliments stop. It’s an older hotel that needs updating both in furnitue/decor and structure. The ceiling  was leaking in our bathroom and had signs of mold. The tub took forever to drain. Also, the hotel only has two elevators. Not a big deal unless one does not work. We stayed 5 days/4 nights and if the city wasn’t booked I would have changed mid stay. This hotel is not worth the value it charges. I’ve stayed in Holiday Inns that were better and much cheaper.At checkout I was not given a receipt which seemed sketchy at best. The reason given was because I didn’t incur any additional charges beyond the rooms rate. I travel a lot and have never heard of this. Our reservation was not part of a group or booked through a travel agent. It was booked when the hotel was under the Omni Hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>I stayed here in July during Essence Festival. The hotel recently changed ownership and probably should have just closed it doors to regroup. The location is great and in walking distance to the Superdome, Riverwalk, Conventikn Center, and other touristy destinations in the city! However, that is where the compliments stop. It’s an older hotel that needs updating both in furnitue/decor and structure. The ceiling  was leaking in our bathroom and had signs of mold. The tub took forever to drain. Also, the hotel only has two elevators. Not a big deal unless one does not work. We stayed 5 days/4 nights and if the city wasn’t booked I would have changed mid stay. This hotel is not worth the value it charges. I’ve stayed in Holiday Inns that were better and much cheaper.At checkout I was not given a receipt which seemed sketchy at best. The reason given was because I didn’t incur any additional charges beyond the rooms rate. I travel a lot and have never heard of this. Our reservation was not part of a group or booked through a travel agent. It was booked when the hotel was under the Omni Hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r619594415-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619594415</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t>Was taken advantage of.</t>
+  </si>
+  <si>
+    <t>I booked this room thru Booking.Com when we arrived found out it was and extra $44 dollars a night to park our car. Complained to hotel referred back to Booking.Com. Hotel kept 87.65 for canceling the hotel room. CUSTOMER BEHAVE dont get ripped off. Read all the fine print. No mention of extra fee to park only states Valet parking. Disappointed in Booking.com and this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this room thru Booking.Com when we arrived found out it was and extra $44 dollars a night to park our car. Complained to hotel referred back to Booking.Com. Hotel kept 87.65 for canceling the hotel room. CUSTOMER BEHAVE dont get ripped off. Read all the fine print. No mention of extra fee to park only states Valet parking. Disappointed in Booking.com and this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r618276365-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>618276365</t>
+  </si>
+  <si>
+    <t>09/20/2018</t>
+  </si>
+  <si>
+    <t>Stayed in better, stayed in worse</t>
+  </si>
+  <si>
+    <t>For what we paid for a King size room, my husband and I are not complaining.  We believe that for what we paid, we got our moneys worth.  The bed was comfortable, the sheets were soft and the AC was cold until the day we left.  We were on the top floor of the hotel.  The room had a lovely super high ceiling, which kept it from feeling like the usual hotel room.  This hotel is old, old, old, in a historical way, so that must be kept in mind.  The musty odor that comes with that was NOT present and that is a good thing but this property could use some TLC.  The wall paper was peeling from the walls in the bathroom, the tub did not drain properly (by the time I finished w/ my shower, I was ankle deep in water and it took forever to drain when I was done) one of the lights next to the bed was broken, and the morning we left something had gone wrong with the AC in the room.   Based on what I saw, I can see why the Omni is no longer associate with it, it is definitely not up to that standard.  I am familiar with the property management company who took this hotel over once the Omni no longer had it. They run some very nice boutique hotels and I am optimistic they will get it together...For what we paid for a King size room, my husband and I are not complaining.  We believe that for what we paid, we got our moneys worth.  The bed was comfortable, the sheets were soft and the AC was cold until the day we left.  We were on the top floor of the hotel.  The room had a lovely super high ceiling, which kept it from feeling like the usual hotel room.  This hotel is old, old, old, in a historical way, so that must be kept in mind.  The musty odor that comes with that was NOT present and that is a good thing but this property could use some TLC.  The wall paper was peeling from the walls in the bathroom, the tub did not drain properly (by the time I finished w/ my shower, I was ankle deep in water and it took forever to drain when I was done) one of the lights next to the bed was broken, and the morning we left something had gone wrong with the AC in the room.   Based on what I saw, I can see why the Omni is no longer associate with it, it is definitely not up to that standard.  I am familiar with the property management company who took this hotel over once the Omni no longer had it. They run some very nice boutique hotels and I am optimistic they will get it together in the next year or so but believe some patience will be in order until they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>For what we paid for a King size room, my husband and I are not complaining.  We believe that for what we paid, we got our moneys worth.  The bed was comfortable, the sheets were soft and the AC was cold until the day we left.  We were on the top floor of the hotel.  The room had a lovely super high ceiling, which kept it from feeling like the usual hotel room.  This hotel is old, old, old, in a historical way, so that must be kept in mind.  The musty odor that comes with that was NOT present and that is a good thing but this property could use some TLC.  The wall paper was peeling from the walls in the bathroom, the tub did not drain properly (by the time I finished w/ my shower, I was ankle deep in water and it took forever to drain when I was done) one of the lights next to the bed was broken, and the morning we left something had gone wrong with the AC in the room.   Based on what I saw, I can see why the Omni is no longer associate with it, it is definitely not up to that standard.  I am familiar with the property management company who took this hotel over once the Omni no longer had it. They run some very nice boutique hotels and I am optimistic they will get it together...For what we paid for a King size room, my husband and I are not complaining.  We believe that for what we paid, we got our moneys worth.  The bed was comfortable, the sheets were soft and the AC was cold until the day we left.  We were on the top floor of the hotel.  The room had a lovely super high ceiling, which kept it from feeling like the usual hotel room.  This hotel is old, old, old, in a historical way, so that must be kept in mind.  The musty odor that comes with that was NOT present and that is a good thing but this property could use some TLC.  The wall paper was peeling from the walls in the bathroom, the tub did not drain properly (by the time I finished w/ my shower, I was ankle deep in water and it took forever to drain when I was done) one of the lights next to the bed was broken, and the morning we left something had gone wrong with the AC in the room.   Based on what I saw, I can see why the Omni is no longer associate with it, it is definitely not up to that standard.  I am familiar with the property management company who took this hotel over once the Omni no longer had it. They run some very nice boutique hotels and I am optimistic they will get it together in the next year or so but believe some patience will be in order until they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r617979697-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>617979697</t>
+  </si>
+  <si>
+    <t>09/19/2018</t>
+  </si>
+  <si>
+    <t>Did the job</t>
+  </si>
+  <si>
+    <t>We arrived in a taxi from the airport after a 10 hour flight from London.  I was desperate for a drink and asked if they had a vending machine or if there was a shop nearby.  The nearest shop was three blocks away and there was no vending machine.  However the girl on reception got us two bottles of water for which we were very grateful.  The room was fine, adequate size, decent air con and clean, comfortable beds.  Location is very good - easy to walk to the French Quarter.  For the price I would recommend for a budget trip to New Orleans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r616771731-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>616771731</t>
+  </si>
+  <si>
+    <t>09/15/2018</t>
+  </si>
+  <si>
+    <t>Did not live up to the description or expectation</t>
+  </si>
+  <si>
+    <t>Upon arrival we were not great or spoke to by the valet which is fine but not typical. When we checked in we were not informed the hot tun or the gym were not available and found out when trying to get a workout in. Then I went to take a shower and the water would not get any hotter than lukewarm. Next morning we requested it to be fixed twice with no response. We finally had to contact the front desk and ask to be moved. If you valet your car you have call down and it takes about 15 mins for you to get the car not a big deal as long as you know this in advance. The room was clean and once we were moved it was great but I give the low rating due to upon booking it stated. Breakfast was included but it was not plus the gym and hot tub were closed and we were not told and it was not stated at booking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival we were not great or spoke to by the valet which is fine but not typical. When we checked in we were not informed the hot tun or the gym were not available and found out when trying to get a workout in. Then I went to take a shower and the water would not get any hotter than lukewarm. Next morning we requested it to be fixed twice with no response. We finally had to contact the front desk and ask to be moved. If you valet your car you have call down and it takes about 15 mins for you to get the car not a big deal as long as you know this in advance. The room was clean and once we were moved it was great but I give the low rating due to upon booking it stated. Breakfast was included but it was not plus the gym and hot tub were closed and we were not told and it was not stated at booking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r615553740-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>615553740</t>
+  </si>
+  <si>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>Disgraceful rooms, service and rats</t>
+  </si>
+  <si>
+    <t>My husband and I had the misfortune to have been booked in this hotel for 2 nights between 31:7/18-2/09/18. Celebrating our 40th anniversary and so jetline cruise holidays set the hotels advising very nice 4 star hotels close to downtown New Orleans. We arrived at the hotel to a unfriendly guy, no information just booked us in and quick to take deposit. Room 611, we found the room to have a disgraceful stench of dirty wet carpets and very disgusting to have been offered this. The window was covered and in the basement and never had a clean, no chair to sit on either, very basic. We left to try and secure more suitable accommodation and there were rats running round outside the hotel and this was the afternoon.  We immediately went to meet other guests who were staying in Sheraton and in the same 16 day trip. We were disgusted to learn of the quality Sheraton had to offer to guests in the trip and we were booked into the royal omni crescent in gravier street, when we returned we complained and just after midnight offered room 509 which didn’t smell, we had some outburst of rudeness at reception of the young male member of staff who does the menial jobs in the hotel and we immediately told him his rudeness was unacceptable. Appalling place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded September 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I had the misfortune to have been booked in this hotel for 2 nights between 31:7/18-2/09/18. Celebrating our 40th anniversary and so jetline cruise holidays set the hotels advising very nice 4 star hotels close to downtown New Orleans. We arrived at the hotel to a unfriendly guy, no information just booked us in and quick to take deposit. Room 611, we found the room to have a disgraceful stench of dirty wet carpets and very disgusting to have been offered this. The window was covered and in the basement and never had a clean, no chair to sit on either, very basic. We left to try and secure more suitable accommodation and there were rats running round outside the hotel and this was the afternoon.  We immediately went to meet other guests who were staying in Sheraton and in the same 16 day trip. We were disgusted to learn of the quality Sheraton had to offer to guests in the trip and we were booked into the royal omni crescent in gravier street, when we returned we complained and just after midnight offered room 509 which didn’t smell, we had some outburst of rudeness at reception of the young male member of staff who does the menial jobs in the hotel and we immediately told him his rudeness was unacceptable. Appalling place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r614343666-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614343666</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>Do not Stay!!!</t>
+  </si>
+  <si>
+    <t>Literally one of the worst overall experiences I've had at a hotel.  Multiple issues with the room and most importantly they owe me money back for charging me for parking when we didn't even have a car, and I've called MANY times and still have not received a refund.  I tried to call Omni, but they aren't owned by Omni any longer.  I tried to call their new hotel chain, and they don't even have a corporate number that works!!  Absolutely ridiculous, my next step is taking it up with the bank.  I have photos of everything we encountered but I will spare you the details.  Just stay away.PS. Don't expect a roof top pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>Literally one of the worst overall experiences I've had at a hotel.  Multiple issues with the room and most importantly they owe me money back for charging me for parking when we didn't even have a car, and I've called MANY times and still have not received a refund.  I tried to call Omni, but they aren't owned by Omni any longer.  I tried to call their new hotel chain, and they don't even have a corporate number that works!!  Absolutely ridiculous, my next step is taking it up with the bank.  I have photos of everything we encountered but I will spare you the details.  Just stay away.PS. Don't expect a roof top pool!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r607759175-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>607759175</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed!</t>
+  </si>
+  <si>
+    <t>I have to admit, when I orginally booked my trip to NOLA on a complete whim, I was nervous after reading the reviews of this hotel. However, I was very pleased with the hotel! The room was a bargain, $68 a night. With that being said, possible guests need to come to terms with what a bargain hotel is going to provide! Positives: Very friendly staff, comfortable bed &amp; pillows, great water pressure in the shower, easy walking distance to the French Quarter. The hotel is on the older side, so there are a few dings and dents in the furniture, the carpet is tired, but nothing that affected me at all during my stay. I’m very glad this was a positive experience, despite what some of the other reviewers said. Note: We did not use the valet parking, the fitness facility, or the pool, so I do not have a comment on those spaces.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded August 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2018</t>
+  </si>
+  <si>
+    <t>I have to admit, when I orginally booked my trip to NOLA on a complete whim, I was nervous after reading the reviews of this hotel. However, I was very pleased with the hotel! The room was a bargain, $68 a night. With that being said, possible guests need to come to terms with what a bargain hotel is going to provide! Positives: Very friendly staff, comfortable bed &amp; pillows, great water pressure in the shower, easy walking distance to the French Quarter. The hotel is on the older side, so there are a few dings and dents in the furniture, the carpet is tired, but nothing that affected me at all during my stay. I’m very glad this was a positive experience, despite what some of the other reviewers said. Note: We did not use the valet parking, the fitness facility, or the pool, so I do not have a comment on those spaces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r602584080-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>602584080</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>They stole from me</t>
+  </si>
+  <si>
+    <t>I actually had a decent stay at the hotel. This would have been a 3 / 4 star rating if they had given me my $100 deposit back. Before I get into that, I’ll leave an honest review.
+The staff at the front desk were always friendly and helpful. There was a hiccup at the front desk at the beginning as I had paid for my hotel visit British Airways and they had no idea so they nearly charged me twice. That was promptly sorted out.
+The hotel itself was very rickety (we had an incident where the toilet holder literally fell out of the wall) so we had to be careful when navigating around. But other than that, it fulfilled its purpose - it gave us a comfortable place to sleep, plus our room was a lot bigger than we expected. We had come to NOLA for essence fest so we didn’t spend incredible amouts of time in the hotel anyway. 
+With the deposit, I asked the man at reception whether I’d get my deposit back and he said he was putting it on my card at that moment. Got back home to London to see that the deposit had not been returned. I waited about 10 days altogether (I thought that sometimes payments take a while to go through so I’ll give it some time) and I then decided to email them. I’ve emailed them twice now but...I actually had a decent stay at the hotel. This would have been a 3 / 4 star rating if they had given me my $100 deposit back. Before I get into that, I’ll leave an honest review.The staff at the front desk were always friendly and helpful. There was a hiccup at the front desk at the beginning as I had paid for my hotel visit British Airways and they had no idea so they nearly charged me twice. That was promptly sorted out.The hotel itself was very rickety (we had an incident where the toilet holder literally fell out of the wall) so we had to be careful when navigating around. But other than that, it fulfilled its purpose - it gave us a comfortable place to sleep, plus our room was a lot bigger than we expected. We had come to NOLA for essence fest so we didn’t spend incredible amouts of time in the hotel anyway. With the deposit, I asked the man at reception whether I’d get my deposit back and he said he was putting it on my card at that moment. Got back home to London to see that the deposit had not been returned. I waited about 10 days altogether (I thought that sometimes payments take a while to go through so I’ll give it some time) and I then decided to email them. I’ve emailed them twice now but they haven’t replied. I will definitely call them now (paying international rates) because that’s $100 / £75. A LOT of money that I can’t afford to just be giving away to people. I feel very cheated and for that, I wouldn’t stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded August 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2018</t>
+  </si>
+  <si>
+    <t>I actually had a decent stay at the hotel. This would have been a 3 / 4 star rating if they had given me my $100 deposit back. Before I get into that, I’ll leave an honest review.
+The staff at the front desk were always friendly and helpful. There was a hiccup at the front desk at the beginning as I had paid for my hotel visit British Airways and they had no idea so they nearly charged me twice. That was promptly sorted out.
+The hotel itself was very rickety (we had an incident where the toilet holder literally fell out of the wall) so we had to be careful when navigating around. But other than that, it fulfilled its purpose - it gave us a comfortable place to sleep, plus our room was a lot bigger than we expected. We had come to NOLA for essence fest so we didn’t spend incredible amouts of time in the hotel anyway. 
+With the deposit, I asked the man at reception whether I’d get my deposit back and he said he was putting it on my card at that moment. Got back home to London to see that the deposit had not been returned. I waited about 10 days altogether (I thought that sometimes payments take a while to go through so I’ll give it some time) and I then decided to email them. I’ve emailed them twice now but...I actually had a decent stay at the hotel. This would have been a 3 / 4 star rating if they had given me my $100 deposit back. Before I get into that, I’ll leave an honest review.The staff at the front desk were always friendly and helpful. There was a hiccup at the front desk at the beginning as I had paid for my hotel visit British Airways and they had no idea so they nearly charged me twice. That was promptly sorted out.The hotel itself was very rickety (we had an incident where the toilet holder literally fell out of the wall) so we had to be careful when navigating around. But other than that, it fulfilled its purpose - it gave us a comfortable place to sleep, plus our room was a lot bigger than we expected. We had come to NOLA for essence fest so we didn’t spend incredible amouts of time in the hotel anyway. With the deposit, I asked the man at reception whether I’d get my deposit back and he said he was putting it on my card at that moment. Got back home to London to see that the deposit had not been returned. I waited about 10 days altogether (I thought that sometimes payments take a while to go through so I’ll give it some time) and I then decided to email them. I’ve emailed them twice now but they haven’t replied. I will definitely call them now (paying international rates) because that’s $100 / £75. A LOT of money that I can’t afford to just be giving away to people. I feel very cheated and for that, I wouldn’t stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r600937874-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>600937874</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Don’t do it, look somewhere else. No where near 4 stars!!!</t>
+  </si>
+  <si>
+    <t>First off, I was mislead into thinking this was still owned by the Omni hotel chain. Back in March I booked my room and it showed OMNI Royal Creacent Hotel. I had been here back in 2013 and thought it was okay for the price since there’s nothing appealing that I could remember or bad experience. Well that was my mistake! 
+Check in - the lobby’s AC was broken, it was HOT. Even though I had called earlier to confirm they still had our two queen bed rooms in the same floor and was told yes the receptionist had no clue what was going on so we stood there forever. Our rooms where NOT on the same floor AND one of the rooms was a king with a rollout bed, even though I had reserved two bedrooms with two queen beds each. Very unorganized!
+Hallway - old dirty carpet EVERYWHERE, smells creep up on you. (4th and 5th floor)
+Room - small, low lighting, windows where filthy, cabinet door to the mini fridge was broken, once the rollout bed was put in, it was very difficult to walk in the room. Oh and mini fridge was broken in my room and my other family members room. No water is given only coffee, there is no info about the town or things to do available (as in most hotels)
+Restroom - was clean, water pressure and temperature were good. That’s the...First off, I was mislead into thinking this was still owned by the Omni hotel chain. Back in March I booked my room and it showed OMNI Royal Creacent Hotel. I had been here back in 2013 and thought it was okay for the price since there’s nothing appealing that I could remember or bad experience. Well that was my mistake! Check in - the lobby’s AC was broken, it was HOT. Even though I had called earlier to confirm they still had our two queen bed rooms in the same floor and was told yes the receptionist had no clue what was going on so we stood there forever. Our rooms where NOT on the same floor AND one of the rooms was a king with a rollout bed, even though I had reserved two bedrooms with two queen beds each. Very unorganized!Hallway - old dirty carpet EVERYWHERE, smells creep up on you. (4th and 5th floor)Room - small, low lighting, windows where filthy, cabinet door to the mini fridge was broken, once the rollout bed was put in, it was very difficult to walk in the room. Oh and mini fridge was broken in my room and my other family members room. No water is given only coffee, there is no info about the town or things to do available (as in most hotels)Restroom - was clean, water pressure and temperature were good. That’s the only reason I’m not giving this place one star! But the sink is very small so if you and the other guests have toiletries to set out, that’s not going work.Service - is there any? None of the employees we encountered seemed to want to be here, DON’T BLAME THEM! But they do make you feel like you’re on your own here and being helpful or welcoming isn’t their priority. We called the reception area over 5 times and never received and answer, had to go downstairs when we called our valet, needed extra towels, more coffee. My family members had no luck with reaching anyone for assistance either over the phone. Atmosphere - Only thing this hotel has going for itself is he location. The lobby, is so unappealing, the bar/restaurant was empty every time we walked in. You pretty much get to bed and shower and go, but you pay the price as if you’re in a hotel with several emenities. Tried to check out early, had to pay a high cancellation fee so we were STUCK at this place for 3 nights. Save yourself the headaches and go stay somewhere else, you’ll save money and headaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>First off, I was mislead into thinking this was still owned by the Omni hotel chain. Back in March I booked my room and it showed OMNI Royal Creacent Hotel. I had been here back in 2013 and thought it was okay for the price since there’s nothing appealing that I could remember or bad experience. Well that was my mistake! 
+Check in - the lobby’s AC was broken, it was HOT. Even though I had called earlier to confirm they still had our two queen bed rooms in the same floor and was told yes the receptionist had no clue what was going on so we stood there forever. Our rooms where NOT on the same floor AND one of the rooms was a king with a rollout bed, even though I had reserved two bedrooms with two queen beds each. Very unorganized!
+Hallway - old dirty carpet EVERYWHERE, smells creep up on you. (4th and 5th floor)
+Room - small, low lighting, windows where filthy, cabinet door to the mini fridge was broken, once the rollout bed was put in, it was very difficult to walk in the room. Oh and mini fridge was broken in my room and my other family members room. No water is given only coffee, there is no info about the town or things to do available (as in most hotels)
+Restroom - was clean, water pressure and temperature were good. That’s the...First off, I was mislead into thinking this was still owned by the Omni hotel chain. Back in March I booked my room and it showed OMNI Royal Creacent Hotel. I had been here back in 2013 and thought it was okay for the price since there’s nothing appealing that I could remember or bad experience. Well that was my mistake! Check in - the lobby’s AC was broken, it was HOT. Even though I had called earlier to confirm they still had our two queen bed rooms in the same floor and was told yes the receptionist had no clue what was going on so we stood there forever. Our rooms where NOT on the same floor AND one of the rooms was a king with a rollout bed, even though I had reserved two bedrooms with two queen beds each. Very unorganized!Hallway - old dirty carpet EVERYWHERE, smells creep up on you. (4th and 5th floor)Room - small, low lighting, windows where filthy, cabinet door to the mini fridge was broken, once the rollout bed was put in, it was very difficult to walk in the room. Oh and mini fridge was broken in my room and my other family members room. No water is given only coffee, there is no info about the town or things to do available (as in most hotels)Restroom - was clean, water pressure and temperature were good. That’s the only reason I’m not giving this place one star! But the sink is very small so if you and the other guests have toiletries to set out, that’s not going work.Service - is there any? None of the employees we encountered seemed to want to be here, DON’T BLAME THEM! But they do make you feel like you’re on your own here and being helpful or welcoming isn’t their priority. We called the reception area over 5 times and never received and answer, had to go downstairs when we called our valet, needed extra towels, more coffee. My family members had no luck with reaching anyone for assistance either over the phone. Atmosphere - Only thing this hotel has going for itself is he location. The lobby, is so unappealing, the bar/restaurant was empty every time we walked in. You pretty much get to bed and shower and go, but you pay the price as if you’re in a hotel with several emenities. Tried to check out early, had to pay a high cancellation fee so we were STUCK at this place for 3 nights. Save yourself the headaches and go stay somewhere else, you’ll save money and headaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r598940349-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598940349</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Skip the valet!</t>
+  </si>
+  <si>
+    <t>I had approximately $1,000 worth of property stolen from my car while it was in valet care. Hotel staff was indifferent and unsympathetic. It's cheap, but it's not worth it. Stay somewhere else if you are visiting! You have been warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
+  </si>
+  <si>
+    <t>I had approximately $1,000 worth of property stolen from my car while it was in valet care. Hotel staff was indifferent and unsympathetic. It's cheap, but it's not worth it. Stay somewhere else if you are visiting! You have been warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r596877474-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596877474</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday New Orleans </t>
+  </si>
+  <si>
+    <t>I’ve never felt the need to write a review before but this is the worst hotel I’ve ever stayed in so I felt compelled to write one. In all my 50 years of travelling I’ve never come across anything like it. I’ve visited many countries including over 30 states of America involving Route 66 which has some ‘questionable’ hotels and all have been fine and in accordance with price and ratings. Here though The staff were appalling they showed no interest in guests at all. Stayed for 4 nights on second night we asked for our car which had been valeted parked. After waiting 15 minutes we noted that it was parked outside; after asking the receptionist how much longer we needed to wait she said ‘oh yes I have the keys’ !!!! There was no water available in the rooms or at reception despite the intense heat, there is no room service, the bar /restaurant is always closed. The roof top pool/spa despite being advertised as fully functional is closed and by the looks of it hasn’t been used for years. There is no mini bar, no room service, no information in the room about the hotel or local facilities available anywhere on site, the iron didn’t work, the WiFi is appalling unless you are in reception and the smell in the bathroom when you run the taps is like a sewer; I could go on. Despite the hotel...I’ve never felt the need to write a review before but this is the worst hotel I’ve ever stayed in so I felt compelled to write one. In all my 50 years of travelling I’ve never come across anything like it. I’ve visited many countries including over 30 states of America involving Route 66 which has some ‘questionable’ hotels and all have been fine and in accordance with price and ratings. Here though The staff were appalling they showed no interest in guests at all. Stayed for 4 nights on second night we asked for our car which had been valeted parked. After waiting 15 minutes we noted that it was parked outside; after asking the receptionist how much longer we needed to wait she said ‘oh yes I have the keys’ !!!! There was no water available in the rooms or at reception despite the intense heat, there is no room service, the bar /restaurant is always closed. The roof top pool/spa despite being advertised as fully functional is closed and by the looks of it hasn’t been used for years. There is no mini bar, no room service, no information in the room about the hotel or local facilities available anywhere on site, the iron didn’t work, the WiFi is appalling unless you are in reception and the smell in the bathroom when you run the taps is like a sewer; I could go on. Despite the hotel being very unoccupied the room wasn’t serviced until after 4 o’clock on our third day by which time we had been out all day and returned. This hotel is not cheap by any means but if you can upgrade at all or find one at the same price do so because how this joint has been given 4 stars is beyond me. Just left Nashville and Memphis and the hotels here were great. New Orleans has been fab shame about this shoddy hotel very disappointing. Looking forward to next stop Florida no hotel can be as bad as this one hopefully MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>I’ve never felt the need to write a review before but this is the worst hotel I’ve ever stayed in so I felt compelled to write one. In all my 50 years of travelling I’ve never come across anything like it. I’ve visited many countries including over 30 states of America involving Route 66 which has some ‘questionable’ hotels and all have been fine and in accordance with price and ratings. Here though The staff were appalling they showed no interest in guests at all. Stayed for 4 nights on second night we asked for our car which had been valeted parked. After waiting 15 minutes we noted that it was parked outside; after asking the receptionist how much longer we needed to wait she said ‘oh yes I have the keys’ !!!! There was no water available in the rooms or at reception despite the intense heat, there is no room service, the bar /restaurant is always closed. The roof top pool/spa despite being advertised as fully functional is closed and by the looks of it hasn’t been used for years. There is no mini bar, no room service, no information in the room about the hotel or local facilities available anywhere on site, the iron didn’t work, the WiFi is appalling unless you are in reception and the smell in the bathroom when you run the taps is like a sewer; I could go on. Despite the hotel...I’ve never felt the need to write a review before but this is the worst hotel I’ve ever stayed in so I felt compelled to write one. In all my 50 years of travelling I’ve never come across anything like it. I’ve visited many countries including over 30 states of America involving Route 66 which has some ‘questionable’ hotels and all have been fine and in accordance with price and ratings. Here though The staff were appalling they showed no interest in guests at all. Stayed for 4 nights on second night we asked for our car which had been valeted parked. After waiting 15 minutes we noted that it was parked outside; after asking the receptionist how much longer we needed to wait she said ‘oh yes I have the keys’ !!!! There was no water available in the rooms or at reception despite the intense heat, there is no room service, the bar /restaurant is always closed. The roof top pool/spa despite being advertised as fully functional is closed and by the looks of it hasn’t been used for years. There is no mini bar, no room service, no information in the room about the hotel or local facilities available anywhere on site, the iron didn’t work, the WiFi is appalling unless you are in reception and the smell in the bathroom when you run the taps is like a sewer; I could go on. Despite the hotel being very unoccupied the room wasn’t serviced until after 4 o’clock on our third day by which time we had been out all day and returned. This hotel is not cheap by any means but if you can upgrade at all or find one at the same price do so because how this joint has been given 4 stars is beyond me. Just left Nashville and Memphis and the hotels here were great. New Orleans has been fab shame about this shoddy hotel very disappointing. Looking forward to next stop Florida no hotel can be as bad as this one hopefully More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r596685268-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596685268</t>
+  </si>
+  <si>
+    <t>Going downhill fast</t>
+  </si>
+  <si>
+    <t>Great location, but last visit.We have stayed at this hotel multiple times and unfortunately this will be our last. The hallways reek of old funk and smoke, the bedspread had holes and instead of repairing the shower, they provided a plug. Honestly, the only highlight was the housekeeper who went out of her way to provide clean towels and coffee even though we opted out of room cleaning services.MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Great location, but last visit.We have stayed at this hotel multiple times and unfortunately this will be our last. The hallways reek of old funk and smoke, the bedspread had holes and instead of repairing the shower, they provided a plug. Honestly, the only highlight was the housekeeper who went out of her way to provide clean towels and coffee even though we opted out of room cleaning services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r595975338-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595975338</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The hotel is far from a 4 star! He needs to be remodeled. It so outdated and it smells old especially in the hall. It was not worth the money we spent. The owners should be ashamed of how their establishment and how it is kept. It's a reflection on them. Won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is far from a 4 star! He needs to be remodeled. It so outdated and it smells old especially in the hall. It was not worth the money we spent. The owners should be ashamed of how their establishment and how it is kept. It's a reflection on them. Won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r595376635-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595376635</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for the weekend check in was a breeze, the drawback was with the room, but it was easily fixed to the correct room that was much more spacious, management and staff was very helpful. This Hotel is in a great location to Convention Center and the Superdome,restaurants etc....MoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for the weekend check in was a breeze, the drawback was with the room, but it was easily fixed to the correct room that was much more spacious, management and staff was very helpful. This Hotel is in a great location to Convention Center and the Superdome,restaurants etc....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r594500240-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594500240</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The hotel was in a good location close to the main attractions of New Orleans. The room was a good size though a bit on the dark side lighting wise. The WIFi was poor in the room and didn’t connect very well so had to go to the lobby to use itMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was in a good location close to the main attractions of New Orleans. The room was a good size though a bit on the dark side lighting wise. The WIFi was poor in the room and didn’t connect very well so had to go to the lobby to use itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r593589318-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>593589318</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Hotel was ok</t>
+  </si>
+  <si>
+    <t>We stayed here for one night, first room we had issues, when you turn the bathroom light on it popped in smoke came from the light my husband had to unscrew the bulb because we were scared a fire was going to start... Called down to the front desk so took them 30 minutes to send a Maintenance man to check the issue. They ended up putting us in another room.. Room was bigger and a little dated. Ceiling had water damage. We check on June 21st and 3 days later a random charge appeared on our card. We have been calling Jessica Price to this day and have yet to receive a phone call back with an explanation regarding this charge. Still have the receipt for the actual charge that was suppose to be on my card.  I will have to contact my credit card company to dispute the charge I guess.. Overall, I would not recommend this hotel.. Most of the staff if friendly, however the hotel is old with a funny smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night, first room we had issues, when you turn the bathroom light on it popped in smoke came from the light my husband had to unscrew the bulb because we were scared a fire was going to start... Called down to the front desk so took them 30 minutes to send a Maintenance man to check the issue. They ended up putting us in another room.. Room was bigger and a little dated. Ceiling had water damage. We check on June 21st and 3 days later a random charge appeared on our card. We have been calling Jessica Price to this day and have yet to receive a phone call back with an explanation regarding this charge. Still have the receipt for the actual charge that was suppose to be on my card.  I will have to contact my credit card company to dispute the charge I guess.. Overall, I would not recommend this hotel.. Most of the staff if friendly, however the hotel is old with a funny smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r591363458-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>591363458</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Nice room but that’s it</t>
+  </si>
+  <si>
+    <t>The staff seemed a bit lost, to be honest, although they were very pleasant. They had never seen my pre paid booking form before and had no idea what to do. The room was fine and the location is excellent. They don’t really serve meals - breakfast iand dinner are best taken elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>David M, General Manager at Royal Crescent Hotel, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>The staff seemed a bit lost, to be honest, although they were very pleasant. They had never seen my pre paid booking form before and had no idea what to do. The room was fine and the location is excellent. They don’t really serve meals - breakfast iand dinner are best taken elsewhereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r583566477-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583566477</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>VERY DISAPPOINTED</t>
+  </si>
+  <si>
+    <t>I made a reservation 4 months before our arrival date. The day of arrival my family had to wait 4 1/2 hours to check in. The ladies at the desk were very slow, unfriendly,  and not accommodating at all. We were awoken early next morning by extremely loud workers in the hall.The morning we checked out,I went downstairs 20 minutes before we were ready to leave to give them my valet stub for our vehicle to be ready. After trying to check out, I was informed I had already checked out,  and still had to wait 45 minutes for our vehicle. I will NEVER stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>I made a reservation 4 months before our arrival date. The day of arrival my family had to wait 4 1/2 hours to check in. The ladies at the desk were very slow, unfriendly,  and not accommodating at all. We were awoken early next morning by extremely loud workers in the hall.The morning we checked out,I went downstairs 20 minutes before we were ready to leave to give them my valet stub for our vehicle to be ready. After trying to check out, I was informed I had already checked out,  and still had to wait 45 minutes for our vehicle. I will NEVER stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r582872433-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582872433</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Not a 4 star hotel</t>
+  </si>
+  <si>
+    <t>Older property, good location in the center of everything.  If I would’ve have gone with 4 star expectations, I might have been pleased.  It’s just old, needs a update. Immediate neighborhood is quiet but a really good central location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Older property, good location in the center of everything.  If I would’ve have gone with 4 star expectations, I might have been pleased.  It’s just old, needs a update. Immediate neighborhood is quiet but a really good central location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r582163874-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582163874</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Very Disappointing</t>
+  </si>
+  <si>
+    <t>We booked through a popular, online service that represented the property as being a 4-star property comparable to Westin or Marriott properties.  It is not.  Facilities and staffing comparable to those of a 2-star property.  The hotel is understaffed by inexperienced personnel.  There are no bellman.  There is no concierge.  There is no room service.  Front desk personnel friendly, but not always reliable.  The property does not appear to have been updated in decades.  Common areas are cramped and were not sufficiently air-conditioned.  Peeling paint was evident in common areas and our room.  Room furnishings also need an update.  We found Wifi service to be unreliable and used our own.  In short, very disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked through a popular, online service that represented the property as being a 4-star property comparable to Westin or Marriott properties.  It is not.  Facilities and staffing comparable to those of a 2-star property.  The hotel is understaffed by inexperienced personnel.  There are no bellman.  There is no concierge.  There is no room service.  Front desk personnel friendly, but not always reliable.  The property does not appear to have been updated in decades.  Common areas are cramped and were not sufficiently air-conditioned.  Peeling paint was evident in common areas and our room.  Room furnishings also need an update.  We found Wifi service to be unreliable and used our own.  In short, very disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r582055629-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582055629</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Great location and nice rooms!</t>
+  </si>
+  <si>
+    <t>Close to French Quarter, Warehouse, and Harrahs, but much quieter place to stay.  Stop in the bar for a relaxing drink and a bite before going out.  Very friendly staff. Free wifi and in-room coffee/tea.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Close to French Quarter, Warehouse, and Harrahs, but much quieter place to stay.  Stop in the bar for a relaxing drink and a bite before going out.  Very friendly staff. Free wifi and in-room coffee/tea.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r581232728-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581232728</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Decent Place</t>
+  </si>
+  <si>
+    <t>Great rates with AAA. Service was great. AC was noisy and they moved me promptly. Needs renovation. Valet parking across the street or self park caddy corner. Great location. Closet to French Quarter and casino.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Great rates with AAA. Service was great. AC was noisy and they moved me promptly. Needs renovation. Valet parking across the street or self park caddy corner. Great location. Closet to French Quarter and casino.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89150-r581095361-Royal_Crescent_Hotel-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581095361</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Not Ritz Carlton BUT Excellent</t>
+  </si>
+  <si>
+    <t>This is the perfect place to stay in New Orleans as far as my wife and I are concerned.  It is upscale enough to satisfy my wife and me, (we do prefer the front of the plane to the back in our elder years) and yet not so much it makes us uncomfortable to be in the lobby in our travel clothes, even a T-Shirt, whatever.  The rooms aren't large, but large enough, the staff is above average friendly and helpful, and the location is, for us, spectacular:  Close enough to walk most anywhere easily, yet far enough off the wild night streets to be quiet and charming.  New Orleans is a special city, and this is a special hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the perfect place to stay in New Orleans as far as my wife and I are concerned.  It is upscale enough to satisfy my wife and me, (we do prefer the front of the plane to the back in our elder years) and yet not so much it makes us uncomfortable to be in the lobby in our travel clothes, even a T-Shirt, whatever.  The rooms aren't large, but large enough, the staff is above average friendly and helpful, and the location is, for us, spectacular:  Close enough to walk most anywhere easily, yet far enough off the wild night streets to be quiet and charming.  New Orleans is a special city, and this is a special hotel.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1217,1858 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>129</v>
+      </c>
+      <c r="X16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>174</v>
+      </c>
+      <c r="X22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>198</v>
+      </c>
+      <c r="X25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>198</v>
+      </c>
+      <c r="X26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X27" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>198</v>
+      </c>
+      <c r="X28" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>174</v>
+      </c>
+      <c r="X29" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>174</v>
+      </c>
+      <c r="X30" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31364</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>206</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>174</v>
+      </c>
+      <c r="X31" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +3091,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +3123,31 @@
         <v>31364</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="E2" t="n">
         <v>70130</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
